--- a/tests/initiate_excel_files/test_comp.xlsx
+++ b/tests/initiate_excel_files/test_comp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="90">
   <si>
     <t>net_idx</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>txt_line_width</t>
+  </si>
+  <si>
+    <t>txt_font_size</t>
   </si>
   <si>
     <t>x_0</t>
@@ -766,13 +769,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,8 +827,11 @@
       <c r="R1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -842,46 +848,49 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -898,46 +907,49 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -954,46 +966,49 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1010,46 +1025,49 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1066,46 +1084,49 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1122,46 +1143,49 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P7">
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1178,46 +1202,49 @@
         <v>-1</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P8">
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1234,46 +1261,49 @@
         <v>-1</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9">
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1290,43 +1320,46 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P10">
         <v>2</v>
       </c>
       <c r="Q10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R10">
         <v>1</v>
+      </c>
+      <c r="S10">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1353,34 +1386,34 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1394,37 +1427,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1438,37 +1471,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1482,37 +1515,37 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1526,37 +1559,37 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_comp.xlsx
+++ b/tests/initiate_excel_files/test_comp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
   <si>
     <t>net_idx</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>arrow_head_size</t>
+  </si>
+  <si>
+    <t>rxn_dash</t>
   </si>
   <si>
     <t>reaction_0</t>
@@ -1369,13 +1372,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1415,8 +1418,11 @@
       <c r="N1" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1427,40 +1433,43 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M2" t="s">
         <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1471,40 +1480,43 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s">
         <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1515,40 +1527,43 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>90</v>
+      </c>
+      <c r="O4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1559,37 +1574,40 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M5" t="s">
         <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_comp.xlsx
+++ b/tests/initiate_excel_files/test_comp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>net_idx</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>rxn_dash</t>
+  </si>
+  <si>
+    <t>rxn_reversible</t>
   </si>
   <si>
     <t>reaction_0</t>
@@ -1372,13 +1375,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1421,8 +1424,11 @@
       <c r="O1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1433,43 +1439,46 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M2" t="s">
         <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>80</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1480,43 +1489,46 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s">
         <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>80</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1527,43 +1539,46 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>80</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1574,40 +1589,43 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s">
         <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_comp.xlsx
+++ b/tests/initiate_excel_files/test_comp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="101">
   <si>
     <t>net_idx</t>
   </si>
@@ -108,6 +108,15 @@
     <t>txt_font_size</t>
   </si>
   <si>
+    <t>shape_name</t>
+  </si>
+  <si>
+    <t>shape_type</t>
+  </si>
+  <si>
+    <t>shape_info</t>
+  </si>
+  <si>
     <t>x_0</t>
   </si>
   <si>
@@ -177,6 +186,27 @@
     <t>[0, 0, 0, 255]</t>
   </si>
   <si>
+    <t>rectangle</t>
+  </si>
+  <si>
+    <t>hexagon</t>
+  </si>
+  <si>
+    <t>triangle</t>
+  </si>
+  <si>
+    <t>polygon</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[[100.0, 50.0], [75.0, 7.0], [25.0, 7.0], [0.0, 50.0], [25.0, 86.0], [75.0, 86.0]]</t>
+  </si>
+  <si>
+    <t>[[100.0, 50.0], [25.0, 7.0], [25.0, 86.0]]</t>
+  </si>
+  <si>
     <t>sources</t>
   </si>
   <si>
@@ -256,9 +286,6 @@
   </si>
   <si>
     <t>E3 * (k3 * x_6 - k3r * x_5)</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
   <si>
     <t>[129, 123, 255, 255]</t>
@@ -775,13 +802,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,8 +863,17 @@
       <c r="S1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -854,40 +890,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -895,8 +931,17 @@
       <c r="S2">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -913,40 +958,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -954,8 +999,17 @@
       <c r="S3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -972,40 +1026,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -1013,8 +1067,17 @@
       <c r="S4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" t="s">
+        <v>56</v>
+      </c>
+      <c r="U4" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1031,40 +1094,40 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1072,8 +1135,17 @@
       <c r="S5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1090,40 +1162,40 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1131,8 +1203,17 @@
       <c r="S6">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" t="s">
+        <v>56</v>
+      </c>
+      <c r="U6" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1149,40 +1230,40 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P7">
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -1190,8 +1271,17 @@
       <c r="S7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1208,40 +1298,40 @@
         <v>-1</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K8">
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P8">
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -1249,8 +1339,17 @@
       <c r="S8">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1267,40 +1366,40 @@
         <v>-1</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P9">
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -1308,8 +1407,17 @@
       <c r="S9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" t="s">
+        <v>56</v>
+      </c>
+      <c r="U9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1326,46 +1434,55 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K10">
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P10">
         <v>2</v>
       </c>
       <c r="Q10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R10">
         <v>1</v>
       </c>
       <c r="S10">
         <v>11</v>
+      </c>
+      <c r="T10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1392,40 +1509,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1439,40 +1556,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="L2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -1489,40 +1606,40 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -1539,40 +1656,40 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="O4" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
@@ -1589,40 +1706,40 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L5" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>

--- a/tests/initiate_excel_files/test_comp.xlsx
+++ b/tests/initiate_excel_files/test_comp.xlsx
@@ -10,13 +10,14 @@
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
     <sheet name="NodeData" sheetId="2" r:id="rId2"/>
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
+    <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="102">
   <si>
     <t>net_idx</t>
   </si>
@@ -319,6 +320,9 @@
   </si>
   <si>
     <t>[12.0, 15.0]</t>
+  </si>
+  <si>
+    <t>txt_content</t>
   </si>
 </sst>
 </file>
@@ -1748,4 +1752,37 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/initiate_excel_files/test_comp.xlsx
+++ b/tests/initiate_excel_files/test_comp.xlsx
@@ -11,13 +11,14 @@
     <sheet name="NodeData" sheetId="2" r:id="rId2"/>
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
+    <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="102">
   <si>
     <t>net_idx</t>
   </si>
@@ -1341,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="S8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T8" t="s">
         <v>58</v>
@@ -1477,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="S10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T10" t="s">
         <v>58</v>
@@ -1785,4 +1786,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/initiate_excel_files/test_comp.xlsx
+++ b/tests/initiate_excel_files/test_comp.xlsx
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="S8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T8" t="s">
         <v>58</v>
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="S10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T10" t="s">
         <v>58</v>

--- a/tests/initiate_excel_files/test_comp.xlsx
+++ b/tests/initiate_excel_files/test_comp.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20388"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F50CC15-C42B-4E90-A4DE-C2057F53E3F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,12 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="103">
   <si>
     <t>net_idx</t>
   </si>
@@ -324,13 +330,16 @@
   </si>
   <si>
     <t>txt_content</t>
+  </si>
+  <si>
+    <t>stroke_color</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +402,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -439,7 +456,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,9 +488,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -505,6 +540,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -680,14 +733,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -742,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -771,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -806,14 +859,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -878,7 +931,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -946,7 +999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1014,7 +1067,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1082,7 +1135,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1150,7 +1203,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1218,7 +1271,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1286,7 +1339,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1354,7 +1407,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1422,7 +1475,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1496,14 +1549,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6:Q13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1526,7 +1581,7 @@
         <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>67</v>
@@ -1549,8 +1604,11 @@
       <c r="P1" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1599,8 +1657,11 @@
       <c r="P2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1649,8 +1710,11 @@
       <c r="P3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1699,8 +1763,11 @@
       <c r="P4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1748,6 +1815,9 @@
       </c>
       <c r="P5" t="b">
         <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1756,14 +1826,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
@@ -1789,14 +1859,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>

--- a/tests/initiate_excel_files/test_comp.xlsx
+++ b/tests/initiate_excel_files/test_comp.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20388"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F50CC15-C42B-4E90-A4DE-C2057F53E3F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
@@ -19,12 +13,12 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="106">
   <si>
     <t>net_idx</t>
   </si>
@@ -50,6 +44,27 @@
     <t>border_width</t>
   </si>
   <si>
+    <t>txt_position</t>
+  </si>
+  <si>
+    <t>txt_size</t>
+  </si>
+  <si>
+    <t>txt_content</t>
+  </si>
+  <si>
+    <t>txt_font_color</t>
+  </si>
+  <si>
+    <t>txt_line_width</t>
+  </si>
+  <si>
+    <t>txt_font_size</t>
+  </si>
+  <si>
+    <t>txt_anchor</t>
+  </si>
+  <si>
     <t>_compartment_default_</t>
   </si>
   <si>
@@ -86,6 +101,15 @@
     <t>[0, 29, 255, 255]</t>
   </si>
   <si>
+    <t>[0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 255]</t>
+  </si>
+  <si>
+    <t>['middle', 'middle']</t>
+  </si>
+  <si>
     <t>comp_idx</t>
   </si>
   <si>
@@ -101,21 +125,6 @@
     <t>shape_idx</t>
   </si>
   <si>
-    <t>txt_position</t>
-  </si>
-  <si>
-    <t>txt_size</t>
-  </si>
-  <si>
-    <t>txt_font_color</t>
-  </si>
-  <si>
-    <t>txt_line_width</t>
-  </si>
-  <si>
-    <t>txt_font_size</t>
-  </si>
-  <si>
     <t>shape_name</t>
   </si>
   <si>
@@ -191,9 +200,6 @@
     <t>[255, 108, 9, 255]</t>
   </si>
   <si>
-    <t>[0, 0, 0, 255]</t>
-  </si>
-  <si>
     <t>rectangle</t>
   </si>
   <si>
@@ -227,6 +233,9 @@
     <t>modifiers</t>
   </si>
   <si>
+    <t>stroke_color</t>
+  </si>
+  <si>
     <t>line_thickness</t>
   </si>
   <si>
@@ -327,19 +336,13 @@
   </si>
   <si>
     <t>[12.0, 15.0]</t>
-  </si>
-  <si>
-    <t>txt_content</t>
-  </si>
-  <si>
-    <t>stroke_color</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,14 +405,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -456,7 +451,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,27 +483,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,24 +517,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -733,14 +692,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,8 +724,29 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -777,80 +757,134 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>11</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I4">
         <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>11</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -859,34 +893,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -895,13 +929,13 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
@@ -913,25 +947,31 @@
         <v>7</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -948,40 +988,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -990,16 +1030,19 @@
         <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="V2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="X2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1016,40 +1059,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -1058,16 +1101,19 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="V3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="X3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1084,40 +1130,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -1126,16 +1172,19 @@
         <v>11</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="V4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="X4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1152,40 +1201,40 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1194,16 +1243,19 @@
         <v>11</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="U5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="V5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="X5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1220,40 +1272,40 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>51</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>46</v>
-      </c>
       <c r="M6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1262,16 +1314,19 @@
         <v>11</v>
       </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="V6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="X6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1288,40 +1343,40 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P7">
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -1330,16 +1385,19 @@
         <v>11</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="U7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="V7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="X7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1356,40 +1414,40 @@
         <v>-1</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K8">
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P8">
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -1398,16 +1456,19 @@
         <v>11</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="V8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="X8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1424,40 +1485,40 @@
         <v>-1</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P9">
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -1466,16 +1527,19 @@
         <v>11</v>
       </c>
       <c r="T9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="V9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="X9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1492,40 +1556,40 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K10">
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P10">
         <v>2</v>
       </c>
       <c r="Q10" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="R10">
         <v>1</v>
@@ -1534,13 +1598,16 @@
         <v>11</v>
       </c>
       <c r="T10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="U10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="V10" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="X10" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1549,16 +1616,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:Q13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1569,205 +1634,205 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
         <v>92</v>
       </c>
-      <c r="L2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" t="s">
-        <v>87</v>
-      </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
         <v>93</v>
       </c>
-      <c r="L3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" t="s">
-        <v>88</v>
-      </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1778,46 +1843,46 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1826,31 +1891,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1859,16 +1930,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1886,10 +1957,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_comp.xlsx
+++ b/tests/initiate_excel_files/test_comp.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="106">
   <si>
     <t>net_idx</t>
   </si>
@@ -1038,6 +1038,9 @@
       <c r="V2" t="s">
         <v>64</v>
       </c>
+      <c r="W2" t="s">
+        <v>38</v>
+      </c>
       <c r="X2" t="s">
         <v>29</v>
       </c>
@@ -1109,6 +1112,9 @@
       <c r="V3" t="s">
         <v>65</v>
       </c>
+      <c r="W3" t="s">
+        <v>39</v>
+      </c>
       <c r="X3" t="s">
         <v>29</v>
       </c>
@@ -1179,6 +1185,9 @@
       </c>
       <c r="V4" t="s">
         <v>64</v>
+      </c>
+      <c r="W4" t="s">
+        <v>40</v>
       </c>
       <c r="X4" t="s">
         <v>29</v>
@@ -1251,6 +1260,9 @@
       <c r="V5" t="s">
         <v>65</v>
       </c>
+      <c r="W5" t="s">
+        <v>41</v>
+      </c>
       <c r="X5" t="s">
         <v>29</v>
       </c>
@@ -1322,6 +1334,9 @@
       <c r="V6" t="s">
         <v>64</v>
       </c>
+      <c r="W6" t="s">
+        <v>42</v>
+      </c>
       <c r="X6" t="s">
         <v>29</v>
       </c>
@@ -1393,6 +1408,9 @@
       <c r="V7" t="s">
         <v>65</v>
       </c>
+      <c r="W7" t="s">
+        <v>39</v>
+      </c>
       <c r="X7" t="s">
         <v>29</v>
       </c>
@@ -1464,6 +1482,9 @@
       <c r="V8" t="s">
         <v>66</v>
       </c>
+      <c r="W8" t="s">
+        <v>43</v>
+      </c>
       <c r="X8" t="s">
         <v>29</v>
       </c>
@@ -1535,6 +1556,9 @@
       <c r="V9" t="s">
         <v>64</v>
       </c>
+      <c r="W9" t="s">
+        <v>44</v>
+      </c>
       <c r="X9" t="s">
         <v>29</v>
       </c>
@@ -1605,6 +1629,9 @@
       </c>
       <c r="V10" t="s">
         <v>66</v>
+      </c>
+      <c r="W10" t="s">
+        <v>43</v>
       </c>
       <c r="X10" t="s">
         <v>29</v>

--- a/tests/initiate_excel_files/test_comp.xlsx
+++ b/tests/initiate_excel_files/test_comp.xlsx
@@ -12,13 +12,14 @@
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
+    <sheet name="LineEndingData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="117">
   <si>
     <t>net_idx</t>
   </si>
@@ -257,6 +258,15 @@
     <t>rxn_reversible</t>
   </si>
   <si>
+    <t>sources_lineending</t>
+  </si>
+  <si>
+    <t>targets_lineending</t>
+  </si>
+  <si>
+    <t>modifiers_lineending</t>
+  </si>
+  <si>
     <t>reaction_0</t>
   </si>
   <si>
@@ -335,7 +345,31 @@
     <t>[[157.53, 420.9], [157.53, 420.9], [157.53, 420.9]]</t>
   </si>
   <si>
-    <t>[12.0, 15.0]</t>
+    <t>[15.0, 12.0]</t>
+  </si>
+  <si>
+    <t>['_line_ending_default_NONE_']</t>
+  </si>
+  <si>
+    <t>['_line_ending_default_']</t>
+  </si>
+  <si>
+    <t>_line_ending_default_NONE_</t>
+  </si>
+  <si>
+    <t>_line_ending_default_</t>
+  </si>
+  <si>
+    <t>[-15.0, -6.0]</t>
+  </si>
+  <si>
+    <t>[91, 176, 253, 255]</t>
+  </si>
+  <si>
+    <t>['polygon']</t>
+  </si>
+  <si>
+    <t>[[[0, 0], [100, 50], [0, 100], [0, 0]]]</t>
   </si>
 </sst>
 </file>
@@ -1644,13 +1678,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1699,8 +1733,17 @@
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1711,37 +1754,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M2" t="s">
         <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O2" t="s">
         <v>64</v>
@@ -1752,8 +1795,17 @@
       <c r="Q2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S2" t="s">
+        <v>110</v>
+      </c>
+      <c r="T2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1764,37 +1816,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H3" t="s">
         <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M3" t="s">
         <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O3" t="s">
         <v>64</v>
@@ -1805,8 +1857,17 @@
       <c r="Q3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S3" t="s">
+        <v>110</v>
+      </c>
+      <c r="T3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1817,37 +1878,37 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
         <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M4" t="s">
         <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O4" t="s">
         <v>64</v>
@@ -1858,8 +1919,17 @@
       <c r="Q4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" t="s">
+        <v>109</v>
+      </c>
+      <c r="S4" t="s">
+        <v>110</v>
+      </c>
+      <c r="T4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1870,37 +1940,37 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H5" t="s">
         <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s">
         <v>45</v>
       </c>
       <c r="N5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O5" t="s">
         <v>64</v>
@@ -1910,6 +1980,15 @@
       </c>
       <c r="Q5" t="s">
         <v>23</v>
+      </c>
+      <c r="R5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S5" t="s">
+        <v>110</v>
+      </c>
+      <c r="T5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1993,4 +2072,83 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/initiate_excel_files/test_comp.xlsx
+++ b/tests/initiate_excel_files/test_comp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="133">
   <si>
     <t>net_idx</t>
   </si>
@@ -267,6 +267,15 @@
     <t>modifiers_lineending</t>
   </si>
   <si>
+    <t>src_lineend_position</t>
+  </si>
+  <si>
+    <t>tgt_lineend_position</t>
+  </si>
+  <si>
+    <t>mod_lineend_position</t>
+  </si>
+  <si>
     <t>reaction_0</t>
   </si>
   <si>
@@ -351,19 +360,58 @@
     <t>['_line_ending_default_NONE_']</t>
   </si>
   <si>
-    <t>['_line_ending_default_']</t>
+    <t>['line_ending_reaction_0']</t>
+  </si>
+  <si>
+    <t>['line_ending_reaction_1']</t>
+  </si>
+  <si>
+    <t>['line_ending_reaction_2']</t>
+  </si>
+  <si>
+    <t>['line_ending_reaction_3']</t>
+  </si>
+  <si>
+    <t>[[174.0, 236.0]]</t>
+  </si>
+  <si>
+    <t>[[600.0, 328.0]]</t>
+  </si>
+  <si>
+    <t>[[600.0, 328.0], [363.13, 264.8]]</t>
+  </si>
+  <si>
+    <t>[[107.0, 408.0]]</t>
+  </si>
+  <si>
+    <t>[[300.0, 235.0]]</t>
+  </si>
+  <si>
+    <t>[[810.0, 284.0], [725.0, 384.0]]</t>
+  </si>
+  <si>
+    <t>[[385.0, 514.0]]</t>
+  </si>
+  <si>
+    <t>[[309.1, 459.6]]</t>
   </si>
   <si>
     <t>_line_ending_default_NONE_</t>
   </si>
   <si>
-    <t>_line_ending_default_</t>
+    <t>line_ending_reaction_0</t>
+  </si>
+  <si>
+    <t>line_ending_reaction_1</t>
+  </si>
+  <si>
+    <t>line_ending_reaction_2</t>
+  </si>
+  <si>
+    <t>line_ending_reaction_3</t>
   </si>
   <si>
     <t>[-15.0, -6.0]</t>
-  </si>
-  <si>
-    <t>[91, 176, 253, 255]</t>
   </si>
   <si>
     <t>['polygon']</t>
@@ -1678,13 +1726,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1742,8 +1790,17 @@
       <c r="T1" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1754,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M2" t="s">
         <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O2" t="s">
         <v>64</v>
@@ -1796,16 +1853,25 @@
         <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="S2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="T2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V2" t="s">
+        <v>121</v>
+      </c>
+      <c r="W2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1816,37 +1882,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H3" t="s">
         <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M3" t="s">
         <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O3" t="s">
         <v>64</v>
@@ -1858,16 +1924,25 @@
         <v>23</v>
       </c>
       <c r="R3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="S3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="T3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" t="s">
+        <v>118</v>
+      </c>
+      <c r="V3" t="s">
+        <v>122</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1878,37 +1953,37 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
         <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M4" t="s">
         <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O4" t="s">
         <v>64</v>
@@ -1920,16 +1995,25 @@
         <v>23</v>
       </c>
       <c r="R4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="S4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="T4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4" t="s">
+        <v>119</v>
+      </c>
+      <c r="V4" t="s">
+        <v>123</v>
+      </c>
+      <c r="W4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1940,37 +2024,37 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
         <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M5" t="s">
         <v>45</v>
       </c>
       <c r="N5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O5" t="s">
         <v>64</v>
@@ -1982,12 +2066,21 @@
         <v>23</v>
       </c>
       <c r="R5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="S5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="T5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U5" t="s">
+        <v>120</v>
+      </c>
+      <c r="V5" t="s">
+        <v>124</v>
+      </c>
+      <c r="W5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2076,7 +2169,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2107,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -2130,22 +2223,91 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_comp.xlsx
+++ b/tests/initiate_excel_files/test_comp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="134">
   <si>
     <t>net_idx</t>
   </si>
@@ -276,6 +276,9 @@
     <t>mod_lineend_position</t>
   </si>
   <si>
+    <t>center_size</t>
+  </si>
+  <si>
     <t>reaction_0</t>
   </si>
   <si>
@@ -372,28 +375,28 @@
     <t>['line_ending_reaction_3']</t>
   </si>
   <si>
-    <t>[[174.0, 236.0]]</t>
-  </si>
-  <si>
-    <t>[[600.0, 328.0]]</t>
-  </si>
-  <si>
-    <t>[[600.0, 328.0], [363.13, 264.8]]</t>
-  </si>
-  <si>
-    <t>[[107.0, 408.0]]</t>
-  </si>
-  <si>
-    <t>[[300.0, 235.0]]</t>
-  </si>
-  <si>
-    <t>[[810.0, 284.0], [725.0, 384.0]]</t>
-  </si>
-  <si>
-    <t>[[385.0, 514.0]]</t>
-  </si>
-  <si>
-    <t>[[309.1, 459.6]]</t>
+    <t>[[202.0, 235.78]]</t>
+  </si>
+  <si>
+    <t>[[628.0, 329.0]]</t>
+  </si>
+  <si>
+    <t>[[572.0, 333.09], [373.95, 282.8]]</t>
+  </si>
+  <si>
+    <t>[[135.0, 415.15]]</t>
+  </si>
+  <si>
+    <t>[[272.0, 235.22]]</t>
+  </si>
+  <si>
+    <t>[[782.0, 290.12], [724.93, 366.0]]</t>
+  </si>
+  <si>
+    <t>[[392.0, 496.0]]</t>
+  </si>
+  <si>
+    <t>[[281.1, 452.45]]</t>
   </si>
   <si>
     <t>_line_ending_default_NONE_</t>
@@ -417,7 +420,7 @@
     <t>['polygon']</t>
   </si>
   <si>
-    <t>[[[0, 0], [100, 50], [0, 100], [0, 0]]]</t>
+    <t>[[[0.0, 0.0], [100.0, 50.0], [0.0, 100.0], [0.0, 0.0]]]</t>
   </si>
 </sst>
 </file>
@@ -1726,13 +1729,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1799,8 +1802,20 @@
       <c r="W1" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1811,37 +1826,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M2" t="s">
         <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O2" t="s">
         <v>64</v>
@@ -1853,25 +1868,31 @@
         <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="T2" t="s">
         <v>64</v>
       </c>
       <c r="U2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1882,37 +1903,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
         <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M3" t="s">
         <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O3" t="s">
         <v>64</v>
@@ -1924,25 +1945,31 @@
         <v>23</v>
       </c>
       <c r="R3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T3" t="s">
         <v>64</v>
       </c>
       <c r="U3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1953,37 +1980,37 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H4" t="s">
         <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M4" t="s">
         <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O4" t="s">
         <v>64</v>
@@ -1995,25 +2022,31 @@
         <v>23</v>
       </c>
       <c r="R4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T4" t="s">
         <v>64</v>
       </c>
       <c r="U4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="V4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2024,37 +2057,37 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
         <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M5" t="s">
         <v>45</v>
       </c>
       <c r="N5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O5" t="s">
         <v>64</v>
@@ -2066,21 +2099,27 @@
         <v>23</v>
       </c>
       <c r="R5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="T5" t="s">
         <v>64</v>
       </c>
       <c r="U5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W5" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2200,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -2223,22 +2262,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2246,22 +2285,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2269,22 +2308,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2292,22 +2331,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_comp.xlsx
+++ b/tests/initiate_excel_files/test_comp.xlsx
@@ -13,13 +13,14 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
     <sheet name="LineEndingData" sheetId="6" r:id="rId6"/>
+    <sheet name="ReactionTextData" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="139">
   <si>
     <t>net_idx</t>
   </si>
@@ -213,120 +214,129 @@
     <t>polygon</t>
   </si>
   <si>
+    <t>[[0.0, 0.0]]</t>
+  </si>
+  <si>
+    <t>[[100.0, 50.0], [75.0, 7.0], [25.0, 7.0], [0.0, 50.0], [25.0, 86.0], [75.0, 86.0]]</t>
+  </si>
+  <si>
+    <t>[[100.0, 50.0], [25.0, 7.0], [25.0, 86.0]]</t>
+  </si>
+  <si>
+    <t>sources</t>
+  </si>
+  <si>
+    <t>targets</t>
+  </si>
+  <si>
+    <t>rate_law</t>
+  </si>
+  <si>
+    <t>modifiers</t>
+  </si>
+  <si>
+    <t>stroke_color</t>
+  </si>
+  <si>
+    <t>line_thickness</t>
+  </si>
+  <si>
+    <t>center_pos</t>
+  </si>
+  <si>
+    <t>handles</t>
+  </si>
+  <si>
+    <t>bezier</t>
+  </si>
+  <si>
+    <t>arrow_head_size</t>
+  </si>
+  <si>
+    <t>rxn_dash</t>
+  </si>
+  <si>
+    <t>rxn_reversible</t>
+  </si>
+  <si>
+    <t>sources_lineending</t>
+  </si>
+  <si>
+    <t>targets_lineending</t>
+  </si>
+  <si>
+    <t>modifiers_lineending</t>
+  </si>
+  <si>
+    <t>src_lineend_position</t>
+  </si>
+  <si>
+    <t>tgt_lineend_position</t>
+  </si>
+  <si>
+    <t>mod_lineend_position</t>
+  </si>
+  <si>
+    <t>center_size</t>
+  </si>
+  <si>
+    <t>src_dash</t>
+  </si>
+  <si>
+    <t>tgt_dash</t>
+  </si>
+  <si>
+    <t>reaction_0</t>
+  </si>
+  <si>
+    <t>reaction_1</t>
+  </si>
+  <si>
+    <t>reaction_2</t>
+  </si>
+  <si>
+    <t>reaction_3</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[2, 5]</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[3, 4]</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>E0 * (k0 * x_0 - k0r * x_1)</t>
+  </si>
+  <si>
+    <t>E1 * (k1 * x_2 - k1r * x_3 * x_4)</t>
+  </si>
+  <si>
+    <t>E2 * (k2 * x_2 * x_1 - k2r * x_5)</t>
+  </si>
+  <si>
+    <t>E3 * (k3 * x_6 - k3r * x_5)</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[[100.0, 50.0], [75.0, 7.0], [25.0, 7.0], [0.0, 50.0], [25.0, 86.0], [75.0, 86.0]]</t>
-  </si>
-  <si>
-    <t>[[100.0, 50.0], [25.0, 7.0], [25.0, 86.0]]</t>
-  </si>
-  <si>
-    <t>sources</t>
-  </si>
-  <si>
-    <t>targets</t>
-  </si>
-  <si>
-    <t>rate_law</t>
-  </si>
-  <si>
-    <t>modifiers</t>
-  </si>
-  <si>
-    <t>stroke_color</t>
-  </si>
-  <si>
-    <t>line_thickness</t>
-  </si>
-  <si>
-    <t>center_pos</t>
-  </si>
-  <si>
-    <t>handles</t>
-  </si>
-  <si>
-    <t>bezier</t>
-  </si>
-  <si>
-    <t>arrow_head_size</t>
-  </si>
-  <si>
-    <t>rxn_dash</t>
-  </si>
-  <si>
-    <t>rxn_reversible</t>
-  </si>
-  <si>
-    <t>sources_lineending</t>
-  </si>
-  <si>
-    <t>targets_lineending</t>
-  </si>
-  <si>
-    <t>modifiers_lineending</t>
-  </si>
-  <si>
-    <t>src_lineend_position</t>
-  </si>
-  <si>
-    <t>tgt_lineend_position</t>
-  </si>
-  <si>
-    <t>mod_lineend_position</t>
-  </si>
-  <si>
-    <t>center_size</t>
-  </si>
-  <si>
-    <t>reaction_0</t>
-  </si>
-  <si>
-    <t>reaction_1</t>
-  </si>
-  <si>
-    <t>reaction_2</t>
-  </si>
-  <si>
-    <t>reaction_3</t>
-  </si>
-  <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>[2, 5]</t>
-  </si>
-  <si>
-    <t>[7]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[3, 4]</t>
-  </si>
-  <si>
-    <t>[6]</t>
-  </si>
-  <si>
-    <t>[8]</t>
-  </si>
-  <si>
-    <t>E0 * (k0 * x_0 - k0r * x_1)</t>
-  </si>
-  <si>
-    <t>E1 * (k1 * x_2 - k1r * x_3 * x_4)</t>
-  </si>
-  <si>
-    <t>E2 * (k2 * x_2 * x_1 - k2r * x_5)</t>
-  </si>
-  <si>
-    <t>E3 * (k3 * x_6 - k3r * x_5)</t>
-  </si>
-  <si>
     <t>[129, 123, 255, 255]</t>
   </si>
   <si>
@@ -421,6 +431,12 @@
   </si>
   <si>
     <t>[[[0.0, 0.0], [100.0, 50.0], [0.0, 100.0], [0.0, 0.0]]]</t>
+  </si>
+  <si>
+    <t>rxn_id</t>
+  </si>
+  <si>
+    <t>txt_id</t>
   </si>
 </sst>
 </file>
@@ -1729,13 +1745,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1814,8 +1830,14 @@
       <c r="AA1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1826,40 +1848,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M2" t="s">
         <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -1868,31 +1890,37 @@
         <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="T2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="U2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="V2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="W2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="X2" t="s">
         <v>27</v>
       </c>
       <c r="AA2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>104</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1903,40 +1931,40 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M3" t="s">
         <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -1945,31 +1973,37 @@
         <v>23</v>
       </c>
       <c r="R3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="T3" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="U3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="X3" t="s">
         <v>27</v>
       </c>
       <c r="AA3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <v>104</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1980,40 +2014,40 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M4" t="s">
         <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
@@ -2022,31 +2056,37 @@
         <v>23</v>
       </c>
       <c r="R4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="T4" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="U4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="V4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="X4" t="s">
         <v>27</v>
       </c>
       <c r="AA4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>104</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2057,40 +2097,40 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M5" t="s">
         <v>45</v>
       </c>
       <c r="N5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
@@ -2099,28 +2139,34 @@
         <v>23</v>
       </c>
       <c r="R5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="T5" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="U5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="V5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="W5" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="X5" t="s">
         <v>27</v>
       </c>
       <c r="AA5" t="s">
-        <v>64</v>
+        <v>104</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2208,13 +2254,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2233,13 +2279,16 @@
       <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -2248,105 +2297,162 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>104</v>
+      </c>
+      <c r="H2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>131</v>
       </c>
-      <c r="D3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>128</v>
-      </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>136</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>136</v>
+      </c>
+      <c r="H5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="H6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_comp.xlsx
+++ b/tests/initiate_excel_files/test_comp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="139">
   <si>
     <t>net_idx</t>
   </si>
@@ -67,6 +67,15 @@
     <t>txt_anchor</t>
   </si>
   <si>
+    <t>shape_name</t>
+  </si>
+  <si>
+    <t>shape_type</t>
+  </si>
+  <si>
+    <t>shape_info</t>
+  </si>
+  <si>
     <t>_compartment_default_</t>
   </si>
   <si>
@@ -112,6 +121,12 @@
     <t>['middle', 'middle']</t>
   </si>
   <si>
+    <t>rectangle</t>
+  </si>
+  <si>
+    <t>[[0.0, 0.0]]</t>
+  </si>
+  <si>
     <t>comp_idx</t>
   </si>
   <si>
@@ -127,15 +142,6 @@
     <t>shape_idx</t>
   </si>
   <si>
-    <t>shape_name</t>
-  </si>
-  <si>
-    <t>shape_type</t>
-  </si>
-  <si>
-    <t>shape_info</t>
-  </si>
-  <si>
     <t>x_0</t>
   </si>
   <si>
@@ -202,9 +208,6 @@
     <t>[255, 108, 9, 255]</t>
   </si>
   <si>
-    <t>rectangle</t>
-  </si>
-  <si>
     <t>hexagon</t>
   </si>
   <si>
@@ -212,9 +215,6 @@
   </si>
   <si>
     <t>polygon</t>
-  </si>
-  <si>
-    <t>[[0.0, 0.0]]</t>
   </si>
   <si>
     <t>[[100.0, 50.0], [75.0, 7.0], [25.0, 7.0], [0.0, 50.0], [25.0, 86.0], [75.0, 86.0]]</t>
@@ -794,13 +794,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,8 +846,17 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -858,31 +867,31 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -891,45 +900,54 @@
         <v>11</v>
       </c>
       <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -938,45 +956,54 @@
         <v>11</v>
       </c>
       <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -985,7 +1012,16 @@
         <v>11</v>
       </c>
       <c r="P4" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1006,22 +1042,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -1030,7 +1066,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -1057,13 +1093,13 @@
         <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -1089,40 +1125,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -1131,19 +1167,19 @@
         <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -1163,40 +1199,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -1205,19 +1241,19 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V3" t="s">
         <v>65</v>
       </c>
       <c r="W3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1237,40 +1273,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -1279,19 +1315,19 @@
         <v>11</v>
       </c>
       <c r="T4" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="U4" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="V4" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="W4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="X4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1311,40 +1347,40 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1353,19 +1389,19 @@
         <v>11</v>
       </c>
       <c r="T5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V5" t="s">
         <v>65</v>
       </c>
       <c r="W5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="X5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1385,40 +1421,40 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1427,19 +1463,19 @@
         <v>11</v>
       </c>
       <c r="T6" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="U6" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="V6" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="W6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="X6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1459,40 +1495,40 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P7">
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -1501,19 +1537,19 @@
         <v>11</v>
       </c>
       <c r="T7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V7" t="s">
         <v>65</v>
       </c>
       <c r="W7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1533,40 +1569,40 @@
         <v>-1</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K8">
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8">
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -1575,19 +1611,19 @@
         <v>11</v>
       </c>
       <c r="T8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V8" t="s">
         <v>66</v>
       </c>
       <c r="W8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1607,40 +1643,40 @@
         <v>-1</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
         <v>56</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>54</v>
-      </c>
       <c r="M9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9">
         <v>2</v>
       </c>
       <c r="Q9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -1649,19 +1685,19 @@
         <v>11</v>
       </c>
       <c r="T9" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="U9" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="V9" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="W9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1681,40 +1717,40 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K10">
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P10">
         <v>2</v>
       </c>
       <c r="Q10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R10">
         <v>1</v>
@@ -1723,19 +1759,19 @@
         <v>11</v>
       </c>
       <c r="T10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V10" t="s">
         <v>66</v>
       </c>
       <c r="W10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1822,13 +1858,13 @@
         <v>85</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>86</v>
@@ -1875,7 +1911,7 @@
         <v>111</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s">
         <v>115</v>
@@ -1887,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s">
         <v>116</v>
@@ -1908,7 +1944,7 @@
         <v>104</v>
       </c>
       <c r="X2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="s">
         <v>104</v>
@@ -1958,7 +1994,7 @@
         <v>112</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N3" t="s">
         <v>115</v>
@@ -1970,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R3" t="s">
         <v>116</v>
@@ -1991,7 +2027,7 @@
         <v>104</v>
       </c>
       <c r="X3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA3" t="s">
         <v>104</v>
@@ -2041,7 +2077,7 @@
         <v>113</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N4" t="s">
         <v>115</v>
@@ -2053,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R4" t="s">
         <v>116</v>
@@ -2074,7 +2110,7 @@
         <v>104</v>
       </c>
       <c r="X4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="s">
         <v>104</v>
@@ -2124,7 +2160,7 @@
         <v>114</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N5" t="s">
         <v>115</v>
@@ -2136,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R5" t="s">
         <v>116</v>
@@ -2157,7 +2193,7 @@
         <v>104</v>
       </c>
       <c r="X5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA5" t="s">
         <v>104</v>
@@ -2223,7 +2259,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -2241,10 +2277,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2274,10 +2310,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -2291,10 +2327,10 @@
         <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>104</v>

--- a/tests/initiate_excel_files/test_comp.xlsx
+++ b/tests/initiate_excel_files/test_comp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="140">
   <si>
     <t>net_idx</t>
   </si>
@@ -142,6 +142,9 @@
     <t>shape_idx</t>
   </si>
   <si>
+    <t>spec_dash</t>
+  </si>
+  <si>
     <t>x_0</t>
   </si>
   <si>
@@ -223,6 +226,9 @@
     <t>[[100.0, 50.0], [25.0, 7.0], [25.0, 86.0]]</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>sources</t>
   </si>
   <si>
@@ -332,9 +338,6 @@
   </si>
   <si>
     <t>E3 * (k3 * x_6 - k3r * x_5)</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
   <si>
     <t>[129, 123, 255, 255]</t>
@@ -1031,13 +1034,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,8 +1110,11 @@
       <c r="X1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1125,34 +1131,34 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -1176,13 +1182,16 @@
         <v>34</v>
       </c>
       <c r="W2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1199,34 +1208,34 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -1241,22 +1250,25 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1273,34 +1285,34 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -1324,13 +1336,16 @@
         <v>34</v>
       </c>
       <c r="W4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1347,34 +1362,34 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -1389,22 +1404,25 @@
         <v>11</v>
       </c>
       <c r="T5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1421,34 +1439,34 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -1472,13 +1490,16 @@
         <v>34</v>
       </c>
       <c r="W6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1495,34 +1516,34 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -1537,22 +1558,25 @@
         <v>11</v>
       </c>
       <c r="T7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1569,34 +1593,34 @@
         <v>-1</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8">
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P8">
         <v>2</v>
@@ -1611,22 +1635,25 @@
         <v>11</v>
       </c>
       <c r="T8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1643,34 +1670,34 @@
         <v>-1</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -1694,13 +1721,16 @@
         <v>34</v>
       </c>
       <c r="W9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1717,34 +1747,34 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10">
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -1759,19 +1789,22 @@
         <v>11</v>
       </c>
       <c r="T10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X10" t="s">
         <v>32</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1798,64 +1831,64 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>15</v>
@@ -1867,10 +1900,10 @@
         <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:29">
@@ -1884,40 +1917,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -1926,34 +1959,34 @@
         <v>26</v>
       </c>
       <c r="R2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="U2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="X2" t="s">
         <v>30</v>
       </c>
       <c r="AA2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="AB2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="AC2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -1967,40 +2000,40 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O3" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -2009,34 +2042,34 @@
         <v>26</v>
       </c>
       <c r="R3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="T3" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="U3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W3" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="X3" t="s">
         <v>30</v>
       </c>
       <c r="AA3" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="AB3" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="AC3" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -2050,40 +2083,40 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="I4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O4" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
@@ -2092,34 +2125,34 @@
         <v>26</v>
       </c>
       <c r="R4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T4" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="U4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="V4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W4" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="X4" t="s">
         <v>30</v>
       </c>
       <c r="AA4" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="AB4" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="AC4" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -2133,40 +2166,40 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O5" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
@@ -2175,34 +2208,34 @@
         <v>26</v>
       </c>
       <c r="R5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T5" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="U5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="V5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="W5" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="X5" t="s">
         <v>30</v>
       </c>
       <c r="AA5" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="AB5" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="AC5" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -2333,16 +2366,16 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2350,25 +2383,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2376,25 +2409,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2402,25 +2435,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2428,25 +2461,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2464,10 +2497,10 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
